--- a/xlsx/自由贸易_intext.xlsx
+++ b/xlsx/自由贸易_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>自由贸易</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_自由贸易</t>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>政策_政策_外交政策_自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E4%BF%9D%E8%AD%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>貿易保護主義</t>
+    <t>贸易保护主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
   </si>
   <si>
-    <t>貿易壁壘</t>
+    <t>贸易壁垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BE%8B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E6%9D%83</t>
@@ -89,73 +89,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98</t>
   </si>
   <si>
-    <t>財團</t>
+    <t>财团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>勞動階級</t>
+    <t>劳动阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>重商主義</t>
+    <t>重商主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%8E%E5%98%89%E5%9C%96</t>
   </si>
   <si>
-    <t>大衛·李嘉圖</t>
+    <t>大卫·李嘉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>鴉片戰爭</t>
+    <t>鸦片战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
@@ -215,49 +215,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>共和黨</t>
+    <t>共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E9%80%86%E5%B7%AE</t>
   </si>
   <si>
-    <t>貿易逆差</t>
+    <t>贸易逆差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>公平貿易</t>
+    <t>公平贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>社會責任</t>
+    <t>社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%9D%90%E6%96%99</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%A9%E4%BD%99%E4%BB%B7%E5%80%BC</t>
   </si>
   <si>
-    <t>剩余价值</t>
+    <t>剩馀价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非政府組織</t>
+    <t>非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>自由貿易協定</t>
+    <t>自由贸易协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -305,37 +305,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%93%81</t>
   </si>
   <si>
-    <t>貨品</t>
+    <t>货品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0%E8%88%87%E9%A6%99%E6%B8%AF%E9%97%9C%E6%96%BC%E5%BB%BA%E7%AB%8B%E6%9B%B4%E7%B7%8A%E5%AF%86%E7%B6%93%E8%B2%BF%E9%97%9C%E4%BF%82%E7%9A%84%E5%AE%89%E6%8E%92</t>
   </si>
   <si>
-    <t>內地與香港關於建立更緊密經貿關係的安排</t>
+    <t>内地与香港关于建立更紧密经贸关系的安排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0%E8%88%87%E6%BE%B3%E9%96%80%E9%97%9C%E6%96%BC%E5%BB%BA%E7%AB%8B%E6%9B%B4%E7%B7%8A%E5%AF%86%E7%B6%93%E8%B2%BF%E9%97%9C%E4%BF%82%E7%9A%84%E5%AE%89%E6%8E%92</t>
   </si>
   <si>
-    <t>內地與澳門關於建立更緊密經貿關係的安排</t>
+    <t>内地与澳门关于建立更紧密经贸关系的安排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%99%BA%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中智關係</t>
+    <t>中智关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E6%96%B0%E8%A5%BF%E5%85%B0%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8D%8F%E5%AE%9A</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E6%9E%B6%E6%A7%8B%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>海峽兩岸經濟合作架構協議</t>
+    <t>海峡两岸经济合作架构协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E7%91%9E%E5%A3%AB%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國－瑞士關係</t>
+    <t>中国－瑞士关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9F%A9%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8C%BA</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E5%8D%80%E5%9F%9F%E5%85%A8%E9%9D%A2%E7%B6%93%E6%BF%9F%E5%A4%A5%E4%BC%B4%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>東南亞區域全面經濟夥伴協定</t>
+    <t>东南亚区域全面经济夥伴协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%8C%AA%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中挪關係</t>
+    <t>中挪关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國－斯里蘭卡關係</t>
+    <t>中国－斯里兰卡关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%A9%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8D%8F%E5%AE%9A</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%80</t>
   </si>
   <si>
-    <t>美洲自由貿易區</t>
+    <t>美洲自由贸易区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>中美洲自由貿易協定</t>
+    <t>中美洲自由贸易协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8D%8F%E8%AE%AE</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>綜合經濟合作協議</t>
+    <t>综合经济合作协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%A4%A7%E8%A5%BF%E6%B4%8B%E8%B2%BF%E6%98%93%E5%8F%8A%E6%8A%95%E8%B3%87%E5%A4%A5%E4%BC%B4%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>跨大西洋貿易及投資夥伴協議</t>
+    <t>跨大西洋贸易及投资夥伴协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%95%A5%E7%B6%93%E6%BF%9F%E5%A4%A5%E4%BC%B4%E9%97%9C%E4%BF%82%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>跨太平洋戰略經濟夥伴關係協議</t>
+    <t>跨太平洋战略经济夥伴关系协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E7%BE%8E%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8D%8F%E5%AE%9A</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>中歐自由貿易協定</t>
+    <t>中欧自由贸易协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>另類全球化</t>
+    <t>另类全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -503,64 +503,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E8%AD%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際刑警組織</t>
+    <t>国际刑警组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
+    <t>旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
     <t>全球化指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -909,7 +900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,64 +3486,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>181</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
